--- a/docs/src/.vuepress/public/fhir/ImplementationGuide/dev.dsf/ValueSet-read-access-tag.xlsx
+++ b/docs/src/.vuepress/public/fhir/ImplementationGuide/dev.dsf/ValueSet-read-access-tag.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.0.0</t>
+    <t>2.0.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-06-28</t>
+    <t>2025-10-27</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/src/.vuepress/public/fhir/ImplementationGuide/dev.dsf/ValueSet-read-access-tag.xlsx
+++ b/docs/src/.vuepress/public/fhir/ImplementationGuide/dev.dsf/ValueSet-read-access-tag.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-27</t>
+    <t>2025-11-26</t>
   </si>
   <si>
     <t>Publisher</t>
